--- a/data/trans_dic/P19-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,65%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,74%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>18,15; 22,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>14,2; 19,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>14,4; 19,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>13,9; 20,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>20,24; 25,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>20,86; 25,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>20,56; 26,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>14,86; 19,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>19,93; 23,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>18,63; 22,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>18,81; 22,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>15,09; 18,58</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,54%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,19%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>23,23; 27,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>23,94; 28,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>28,94; 33,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>23,07; 28,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>34,46; 39,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>30,84; 35,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>36,01; 40,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>25,1; 33,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>29,58; 32,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>27,77; 30,82</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>33,03; 36,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>25,69; 29,93</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,71%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,39%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,66%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,85%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,85%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>27,06; 34,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>31,9; 41,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>34,06; 42,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>32,01; 39,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>32,18; 41,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>36,45; 46,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>37,58; 45,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>42,18; 49,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>30,5; 36,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>35,43; 42,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>37,1; 43,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>38,27; 43,37</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,16%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,56%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,87%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,46%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>23,42; 26,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>23,11; 26,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>27,74; 30,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>24,09; 28,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>29,83; 33,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>28,86; 32,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>32,91; 36,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>27,18; 32,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>27,15; 29,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>26,46; 28,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>30,74; 33,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>26,69; 29,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>17,16%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,9; 20,11</t>
+          <t>14,45; 20,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,86; 19,11</t>
+          <t>15,15; 19,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,09; 18,58</t>
+          <t>15,49; 19,06</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>23,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>29,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>26,62%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,07; 28,11</t>
+          <t>15,71; 27,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,1; 33,16</t>
+          <t>21,15; 34,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,69; 29,93</t>
+          <t>21,55; 29,93</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>35,66%</t>
+          <t>35,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>45,74%</t>
+          <t>45,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>40,79%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,01; 39,74</t>
+          <t>31,89; 39,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,18; 49,16</t>
+          <t>42,23; 49,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>38,27; 43,37</t>
+          <t>38,21; 43,34</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>25,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>27,55%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,09; 28,07</t>
+          <t>19,2; 27,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,18; 32,08</t>
+          <t>23,91; 32,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,69; 29,75</t>
+          <t>23,72; 29,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,15; 22,93</t>
+          <t>18,21; 23,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,2; 19,01</t>
+          <t>14,11; 18,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,4; 19,99</t>
+          <t>14,48; 20,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,45; 20,89</t>
+          <t>14,55; 20,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,24; 25,01</t>
+          <t>20,29; 24,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,86; 25,56</t>
+          <t>20,8; 25,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,56; 26,23</t>
+          <t>20,53; 26,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,15; 19,47</t>
+          <t>14,86; 18,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,93; 23,26</t>
+          <t>19,94; 23,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,63; 22,12</t>
+          <t>18,5; 22,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,81; 22,75</t>
+          <t>18,79; 22,76</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,49; 19,06</t>
+          <t>15,41; 19,06</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,23; 27,74</t>
+          <t>23,5; 27,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,94; 28,1</t>
+          <t>23,71; 27,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,94; 33,25</t>
+          <t>29,01; 33,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,71; 27,59</t>
+          <t>16,19; 27,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,46; 39,32</t>
+          <t>34,69; 39,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,84; 35,47</t>
+          <t>30,81; 35,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>36,01; 40,5</t>
+          <t>35,78; 40,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,15; 34,03</t>
+          <t>21,02; 33,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,58; 32,89</t>
+          <t>29,57; 32,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27,77; 30,82</t>
+          <t>27,67; 30,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33,03; 36,09</t>
+          <t>33,03; 36,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,55; 29,93</t>
+          <t>21,83; 30,19</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,06; 34,84</t>
+          <t>26,68; 34,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,9; 41,35</t>
+          <t>31,86; 41,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,06; 42,83</t>
+          <t>34,16; 42,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,89; 39,77</t>
+          <t>31,64; 39,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,18; 41,36</t>
+          <t>32,36; 41,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,45; 46,03</t>
+          <t>36,68; 46,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,58; 45,59</t>
+          <t>37,28; 46,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,23; 49,25</t>
+          <t>42,5; 49,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,5; 36,85</t>
+          <t>30,56; 36,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>35,43; 42,73</t>
+          <t>35,57; 42,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37,1; 43,09</t>
+          <t>36,9; 42,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>38,21; 43,34</t>
+          <t>38,13; 43,34</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,42; 26,53</t>
+          <t>23,24; 26,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,11; 26,31</t>
+          <t>23,31; 26,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,74; 30,78</t>
+          <t>27,51; 30,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,2; 27,65</t>
+          <t>19,23; 27,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,83; 33,03</t>
+          <t>29,8; 32,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,86; 32,11</t>
+          <t>28,72; 31,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,91; 36,24</t>
+          <t>32,83; 36,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,91; 32,62</t>
+          <t>23,88; 32,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,15; 29,25</t>
+          <t>27,03; 29,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,46; 28,64</t>
+          <t>26,4; 28,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,74; 33,12</t>
+          <t>30,73; 32,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,72; 29,58</t>
+          <t>24,32; 29,82</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que en los últimos 6 meses han ido al dentista</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>211725</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>159225</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>129483</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>89463</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>296116</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>308782</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>231312</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>125337</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>507842</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>468008</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>360795</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>214800</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>187837; 237610</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>137318; 182697</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>109241; 151388</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>74187; 105779</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>266677; 327885</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>278243; 340932</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>204251; 258891</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>110285; 140785</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>467697; 547050</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>427606; 510171</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>328706; 398065</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>192871; 238633</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1331</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1391</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>433857</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>507349</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>645978</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>541791</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>587427</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>580277</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>757879</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>655344</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1021284</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1087626</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1403857</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1197135</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>397679; 472232</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>465236; 547491</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>602397; 689404</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>368566; 629674</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>550821; 625805</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>541303; 621735</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>711407; 796993</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>467051; 748433</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>969822; 1076646</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1029157; 1145426</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1342703; 1466439</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>981925; 1357624</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>169336</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>176273</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>209930</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>229029</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>175453</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>188829</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>227575</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>301571</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>344789</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>365102</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>437505</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>530601</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>147119; 191522</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>153319; 200028</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>186842; 233456</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>203485; 255180</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>154156; 196898</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>168232; 211322</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>204728; 252581</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>279614; 323296</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>314075; 371742</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>334289; 396027</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>404396; 471040</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>496057; 563863</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>829</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1159</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1573</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1839</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1790</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2402</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>814918</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>842848</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>985391</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>860283</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1058996</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1077888</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1216765</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1082252</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1873914</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1920736</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2202156</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1942535</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>761136; 862782</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>796561; 898719</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>929340; 1041855</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>659363; 945211</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1006886; 1110122</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1020365; 1132509</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1159518; 1274180</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>864974; 1179787</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1798612; 1942870</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1840078; 1998667</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2123149; 2276326</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1714818; 2102443</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>